--- a/client/output.xlsx
+++ b/client/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="430">
   <si>
     <t>Dam Name</t>
   </si>
@@ -55,1020 +55,1005 @@
     <t>15/09/2023 09:33 AM</t>
   </si>
   <si>
-    <t>22-11-2023</t>
+    <t>30-11-2023</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>Babhali Barrage</t>
+  </si>
+  <si>
+    <t>73B50104</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:52 AM</t>
+  </si>
+  <si>
+    <t>Bawanthadi</t>
+  </si>
+  <si>
+    <t>560740C2</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:01 AM</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>Bembla</t>
+  </si>
+  <si>
+    <t>73BF35CC</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:51 AM</t>
+  </si>
+  <si>
+    <t>Bhavali</t>
+  </si>
+  <si>
+    <t>Bhavali Dam</t>
+  </si>
+  <si>
+    <t>73B608D8</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:13 AM</t>
+  </si>
+  <si>
+    <t>15-10-2022</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>Bhojapur Dam</t>
+  </si>
+  <si>
+    <t>73B62E34</t>
+  </si>
+  <si>
+    <t>Bhokarbari</t>
+  </si>
+  <si>
+    <t>73BA6CA2</t>
+  </si>
+  <si>
+    <t>12/08/2023 07:25 AM</t>
+  </si>
+  <si>
+    <t>Asolamendha</t>
+  </si>
+  <si>
+    <t>56011EA2</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:40 AM</t>
+  </si>
+  <si>
+    <t>Bodalkasa Medium Project</t>
+  </si>
+  <si>
+    <t>Bodalkasa</t>
+  </si>
+  <si>
+    <t>5607C6D6</t>
+  </si>
+  <si>
+    <t>23/11/2023 08:00 AM</t>
+  </si>
+  <si>
+    <t>Bor</t>
+  </si>
+  <si>
+    <t>5607ADE2</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:24 AM</t>
+  </si>
+  <si>
+    <t>Borgaon  Medium Project</t>
+  </si>
+  <si>
+    <t>Borgaon</t>
+  </si>
+  <si>
+    <t>56003466</t>
+  </si>
+  <si>
+    <t>30/11/2023 08:32 AM</t>
+  </si>
+  <si>
+    <t>Bori</t>
+  </si>
+  <si>
+    <t>73BA8182</t>
+  </si>
+  <si>
+    <t>02/12/2023 06:28 AM</t>
+  </si>
+  <si>
+    <t>Burai Medium Project</t>
+  </si>
+  <si>
+    <t>Burai</t>
+  </si>
+  <si>
+    <t>73BAD1FE</t>
+  </si>
+  <si>
+    <t>15/09/2023 06:39 AM</t>
+  </si>
+  <si>
+    <t>Chandai Medium Project</t>
+  </si>
+  <si>
+    <t>Chandai</t>
+  </si>
+  <si>
+    <t>56001C58</t>
+  </si>
+  <si>
+    <t>02/12/2023 06:54 AM</t>
+  </si>
+  <si>
+    <t>Chandrabhaga Medium Dam</t>
+  </si>
+  <si>
+    <t>Chandrabhaga</t>
+  </si>
+  <si>
+    <t>56080B88</t>
+  </si>
+  <si>
+    <t>23/11/2023 08:28 AM</t>
+  </si>
+  <si>
+    <t>Chankapur</t>
+  </si>
+  <si>
+    <t>73BA7106</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:41 AM</t>
+  </si>
+  <si>
+    <t>Chargaon</t>
+  </si>
+  <si>
+    <t>5600128A</t>
+  </si>
+  <si>
+    <t>02/12/2023 06:55 AM</t>
+  </si>
+  <si>
+    <t>Chorkhamara Medium Project</t>
+  </si>
+  <si>
+    <t>Chorakhmara</t>
+  </si>
+  <si>
+    <t>5607C804</t>
+  </si>
+  <si>
+    <t>Aner</t>
+  </si>
+  <si>
+    <t>73BA6270</t>
+  </si>
+  <si>
+    <t>16/11/2023 09:09 PM</t>
+  </si>
+  <si>
+    <t>Dara</t>
+  </si>
+  <si>
+    <t>73BAE464</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:39 AM</t>
+  </si>
+  <si>
+    <t>Darna</t>
+  </si>
+  <si>
+    <t>Darna Dam</t>
+  </si>
+  <si>
+    <t>101C0001</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:12 AM</t>
+  </si>
+  <si>
+    <t>Dham</t>
+  </si>
+  <si>
+    <t>56003AB4</t>
+  </si>
+  <si>
+    <t>02/12/2023 09:10 AM</t>
+  </si>
+  <si>
+    <t>Chitri</t>
+  </si>
+  <si>
+    <t>101A0001</t>
+  </si>
+  <si>
+    <t>01/12/2023 07:14 AM</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>5606D75A</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:46 AM</t>
+  </si>
+  <si>
+    <t>06-11-2023</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>Dongargaon</t>
+  </si>
+  <si>
+    <t>560029C2</t>
+  </si>
+  <si>
+    <t>02/12/2023 05:57 AM</t>
+  </si>
+  <si>
+    <t>Alandi Dam</t>
+  </si>
+  <si>
+    <t>73B6060A</t>
+  </si>
+  <si>
+    <t>Gautami-Godavari Dam</t>
+  </si>
+  <si>
+    <t>Gautami Godavari Dam</t>
+  </si>
+  <si>
+    <t>73B57946</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:50 AM</t>
+  </si>
+  <si>
+    <t>Ghatprabha (phatakwadi)</t>
+  </si>
+  <si>
+    <t>Ghatprabha</t>
+  </si>
+  <si>
+    <t>73BC5724</t>
+  </si>
+  <si>
+    <t>Ghodazari</t>
+  </si>
+  <si>
+    <t>56084882</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:04 AM</t>
+  </si>
+  <si>
+    <t>19-09-2023</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>Girna</t>
+  </si>
+  <si>
+    <t>73BA449C</t>
+  </si>
+  <si>
+    <t>01/12/2023 07:53 AM</t>
+  </si>
+  <si>
+    <t>Dyanganga Project</t>
+  </si>
+  <si>
+    <t>Dhyanganga</t>
+  </si>
+  <si>
+    <t>73BA2FA8</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:09 AM</t>
+  </si>
+  <si>
+    <t>Gosikhurd</t>
+  </si>
+  <si>
+    <t>Gosekhurd</t>
+  </si>
+  <si>
+    <t>5600E20E</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:30 AM</t>
+  </si>
+  <si>
+    <t>Chulband Medium Project</t>
+  </si>
+  <si>
+    <t>Chulbandh</t>
+  </si>
+  <si>
+    <t>5607E03A</t>
+  </si>
+  <si>
+    <t>Upper Tapi Hatnur</t>
+  </si>
+  <si>
+    <t>Hatnur</t>
+  </si>
+  <si>
+    <t>73BA3CDE</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:58 AM</t>
+  </si>
+  <si>
+    <t>Gangapur</t>
+  </si>
+  <si>
+    <t>Gangapur Dam</t>
+  </si>
+  <si>
+    <t>73B5A1FC</t>
+  </si>
+  <si>
+    <t>Jam River  Medium  Dam</t>
+  </si>
+  <si>
+    <t>Jam Project</t>
+  </si>
+  <si>
+    <t>56000F2E</t>
+  </si>
+  <si>
+    <t>02/11/2023 08:35 AM</t>
+  </si>
+  <si>
+    <t>Goki Medium Project</t>
+  </si>
+  <si>
+    <t>Goki</t>
+  </si>
+  <si>
+    <t>73BEAC86</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:18 AM</t>
+  </si>
+  <si>
+    <t>Jamkhedi</t>
+  </si>
+  <si>
+    <t>73BAA76E</t>
+  </si>
+  <si>
+    <t>29/11/2023 01:13 PM</t>
+  </si>
+  <si>
+    <t>27-11-2023</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>Gunjawani</t>
+  </si>
+  <si>
+    <t>Gunjawani-WL</t>
+  </si>
+  <si>
+    <t>73BCC246</t>
+  </si>
+  <si>
+    <t>01/12/2023 08:06 AM</t>
+  </si>
+  <si>
+    <t>Paithan (Jayakwadi)</t>
+  </si>
+  <si>
+    <t>Jayakwadi Dam</t>
+  </si>
+  <si>
+    <t>111C0017</t>
+  </si>
+  <si>
+    <t>02/12/2023 08:57 AM</t>
+  </si>
+  <si>
+    <t>Kadwa</t>
+  </si>
+  <si>
+    <t>Kadwa Dam</t>
+  </si>
+  <si>
+    <t>73B4984E</t>
+  </si>
+  <si>
+    <t>Kalisarar</t>
+  </si>
+  <si>
+    <t>56077558</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:45 AM</t>
+  </si>
+  <si>
+    <t>Kanholibara</t>
+  </si>
+  <si>
+    <t>560001FC</t>
+  </si>
+  <si>
+    <t>11/10/2023 02:56 PM</t>
+  </si>
+  <si>
+    <t>Kar River Project</t>
+  </si>
+  <si>
+    <t>Kar</t>
+  </si>
+  <si>
+    <t>56005F52</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:26 AM</t>
+  </si>
+  <si>
+    <t>JAMBRE</t>
+  </si>
+  <si>
+    <t>Jambhare</t>
+  </si>
+  <si>
+    <t>73BC9CE8</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:49 AM</t>
+  </si>
+  <si>
+    <t>Karwand</t>
+  </si>
+  <si>
+    <t>Karawand</t>
+  </si>
+  <si>
+    <t>73BAC288</t>
+  </si>
+  <si>
+    <t>01/12/2023 09:58 AM</t>
+  </si>
+  <si>
+    <t>Kashyapi Dam</t>
+  </si>
+  <si>
+    <t>73B56A30</t>
+  </si>
+  <si>
+    <t>Katepurna</t>
+  </si>
+  <si>
+    <t>73B9EDB8</t>
+  </si>
+  <si>
+    <t>Karanjwan</t>
+  </si>
+  <si>
+    <t>Karanjvan Dam</t>
+  </si>
+  <si>
+    <t>73B4C832</t>
+  </si>
+  <si>
+    <t>Khairbandha</t>
+  </si>
+  <si>
+    <t>5607D5A0</t>
+  </si>
+  <si>
+    <t>JANGAMHATTI</t>
+  </si>
+  <si>
+    <t>Jangamhatti-Dam</t>
+  </si>
+  <si>
+    <t>73BC4A80</t>
+  </si>
+  <si>
+    <t>29/11/2023 09:01 AM</t>
+  </si>
+  <si>
+    <t>Khindsi</t>
+  </si>
+  <si>
+    <t>5607EEE8</t>
+  </si>
+  <si>
+    <t>02/12/2023 06:00 AM</t>
+  </si>
+  <si>
+    <t>Kolar</t>
+  </si>
+  <si>
+    <t>5607FD9E</t>
+  </si>
+  <si>
+    <t>23/11/2023 10:00 AM</t>
+  </si>
+  <si>
+    <t>Kolhi Medium Project</t>
+  </si>
+  <si>
+    <t>Kolhi</t>
+  </si>
+  <si>
+    <t>111C0059</t>
+  </si>
+  <si>
+    <t>29/06/2023 08:18 AM</t>
+  </si>
+  <si>
+    <t>Koradi Nalla Project</t>
+  </si>
+  <si>
+    <t>Koradi</t>
+  </si>
+  <si>
+    <t>73BEC7B2</t>
+  </si>
+  <si>
+    <t>Labhansarad Medium Project</t>
+  </si>
+  <si>
+    <t>Labhansarad</t>
+  </si>
+  <si>
+    <t>56002710</t>
+  </si>
+  <si>
+    <t>Lal NalIa</t>
+  </si>
+  <si>
+    <t>Lalnala</t>
+  </si>
+  <si>
+    <t>73BFD63E</t>
+  </si>
+  <si>
+    <t>Panzara Medium Project</t>
+  </si>
+  <si>
+    <t>Lower Panzara</t>
+  </si>
+  <si>
+    <t>73BAB418</t>
+  </si>
+  <si>
+    <t>Kesarnala Medium Dam</t>
+  </si>
+  <si>
+    <t>Kesarnalla</t>
+  </si>
+  <si>
+    <t>5608055A</t>
+  </si>
+  <si>
+    <t>Khekranala Dam</t>
+  </si>
+  <si>
+    <t>Khekranalla</t>
+  </si>
+  <si>
+    <t>56079878</t>
+  </si>
+  <si>
+    <t>23/11/2023 10:01 AM</t>
+  </si>
+  <si>
+    <t>Lower Wardha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Wardha </t>
+  </si>
+  <si>
+    <t>73BF502A</t>
+  </si>
+  <si>
+    <t>Wadgaon</t>
+  </si>
+  <si>
+    <t>Lower Wenna (Wadgaon Tank)</t>
+  </si>
+  <si>
+    <t>73BFA0AE</t>
+  </si>
+  <si>
+    <t>02/12/2023 08:29 AM</t>
+  </si>
+  <si>
+    <t>Madan</t>
+  </si>
+  <si>
+    <t>560042F6</t>
+  </si>
+  <si>
+    <t>01/11/2023 09:05 AM</t>
+  </si>
+  <si>
+    <t>Makardhokda Dam</t>
+  </si>
+  <si>
+    <t>Makardhokada</t>
+  </si>
+  <si>
+    <t>560823B6</t>
+  </si>
+  <si>
+    <t>30/11/2023 07:10 AM</t>
+  </si>
+  <si>
+    <t>Malangaon Medium Project</t>
+  </si>
+  <si>
+    <t>Malangaon</t>
+  </si>
+  <si>
+    <t>73BAA9BC</t>
+  </si>
+  <si>
+    <t>02/11/2023 09:48 AM</t>
+  </si>
+  <si>
+    <t>31-10-2023</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>Managarh</t>
+  </si>
+  <si>
+    <t>5607DB72</t>
+  </si>
+  <si>
+    <t>Lower Manar</t>
+  </si>
+  <si>
+    <t>Manar Dam</t>
+  </si>
+  <si>
+    <t>73B5FF52</t>
+  </si>
+  <si>
+    <t>Mandohal Dam</t>
+  </si>
+  <si>
+    <t>Mandohol Dam</t>
+  </si>
+  <si>
+    <t>111C0030</t>
+  </si>
+  <si>
+    <t>Manyad</t>
+  </si>
+  <si>
+    <t>73BA92F4</t>
+  </si>
+  <si>
+    <t>09/10/2023 08:37 AM</t>
+  </si>
+  <si>
+    <t>Mordham dam</t>
+  </si>
+  <si>
+    <t>Mordham</t>
+  </si>
+  <si>
+    <t>5608162C</t>
+  </si>
+  <si>
+    <t>23/11/2023 08:29 AM</t>
+  </si>
+  <si>
+    <t>Morna Dam</t>
+  </si>
+  <si>
+    <t>Morna</t>
+  </si>
+  <si>
+    <t>73B9F01C</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:21 AM</t>
+  </si>
+  <si>
+    <t>Mudgal H L B</t>
+  </si>
+  <si>
+    <t>Mudgal Barrage</t>
+  </si>
+  <si>
+    <t>73B63D42</t>
+  </si>
+  <si>
+    <t>01/12/2023 09:33 AM</t>
+  </si>
+  <si>
+    <t>Mukane</t>
+  </si>
+  <si>
+    <t>Mukane Dam</t>
+  </si>
+  <si>
+    <t>73B4ADD4</t>
+  </si>
+  <si>
+    <t>Mula</t>
+  </si>
+  <si>
+    <t>Mula Dam</t>
+  </si>
+  <si>
+    <t>111C0028</t>
+  </si>
+  <si>
+    <t>Mun Dam</t>
+  </si>
+  <si>
+    <t>Mun</t>
+  </si>
+  <si>
+    <t>73BA0944</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:08 AM</t>
+  </si>
+  <si>
+    <t>Nagan Medium Project</t>
+  </si>
+  <si>
+    <t>Nagan</t>
+  </si>
+  <si>
+    <t>73BAF712</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:38 AM</t>
+  </si>
+  <si>
+    <t>Nagya Sakya Dam</t>
+  </si>
+  <si>
+    <t>Nagyasakya</t>
+  </si>
+  <si>
+    <t>73BA7FD4</t>
+  </si>
+  <si>
+    <t>Nalganga</t>
+  </si>
+  <si>
+    <t>73BA320C</t>
+  </si>
+  <si>
+    <t>Naleshwar</t>
+  </si>
+  <si>
+    <t>Nalleshwar</t>
+  </si>
+  <si>
+    <t>56085526</t>
+  </si>
+  <si>
+    <t>Narangi Medium Project</t>
+  </si>
+  <si>
+    <t>Narangi Dam</t>
+  </si>
+  <si>
+    <t>111C0053</t>
+  </si>
+  <si>
+    <t>29/06/2023 08:13 AM</t>
+  </si>
+  <si>
+    <t>Natuwadi Medium Project</t>
+  </si>
+  <si>
+    <t>Natuwadi Dam</t>
+  </si>
+  <si>
+    <t>73B07E86</t>
+  </si>
+  <si>
+    <t>11/11/2023 09:50 AM</t>
+  </si>
+  <si>
+    <t>Ozarkhed</t>
+  </si>
+  <si>
+    <t>Ozarkhed Dam</t>
+  </si>
+  <si>
+    <t>73B5EC24</t>
+  </si>
+  <si>
+    <t>02/12/2023 09:14 AM</t>
+  </si>
+  <si>
+    <t>Nirguna Dam</t>
+  </si>
+  <si>
+    <t>Nirguna</t>
+  </si>
+  <si>
+    <t>73B9FECE</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:15 AM</t>
+  </si>
+  <si>
+    <t>Bindusara Medium Project</t>
+  </si>
+  <si>
+    <t>Bindusara Dam</t>
+  </si>
+  <si>
+    <t>73B63390</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:36 AM</t>
+  </si>
+  <si>
+    <t>Pandrabodi</t>
+  </si>
+  <si>
+    <t>560818FE</t>
+  </si>
+  <si>
+    <t>23/09/2023 07:02 AM</t>
+  </si>
+  <si>
+    <t>Pentakli</t>
+  </si>
+  <si>
+    <t>73BE2440</t>
+  </si>
+  <si>
+    <t>02/12/2023 06:38 AM</t>
+  </si>
+  <si>
+    <t>Pothara</t>
+  </si>
+  <si>
+    <t>Pothra</t>
+  </si>
+  <si>
+    <t>56005180</t>
+  </si>
+  <si>
+    <t>13/11/2023 07:11 AM</t>
+  </si>
+  <si>
+    <t>Pujaritola P.U.Weir</t>
+  </si>
+  <si>
+    <t>Pujari Tola</t>
+  </si>
+  <si>
+    <t>56075D66</t>
+  </si>
+  <si>
+    <t>02/12/2023 07:44 AM</t>
+  </si>
+  <si>
+    <t>Punegaon</t>
+  </si>
+  <si>
+    <t>Punegaon Dam</t>
+  </si>
+  <si>
+    <t>73B589C2</t>
+  </si>
+  <si>
+    <t>Panchadhara Dam</t>
+  </si>
+  <si>
+    <t>Panchdhara</t>
+  </si>
+  <si>
+    <t>56004C24</t>
+  </si>
+  <si>
+    <t>29-11-2023</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>Rengepar medium project</t>
+  </si>
+  <si>
+    <t>Rengepar</t>
+  </si>
+  <si>
+    <t>56084650</t>
+  </si>
+  <si>
+    <t>Saikheda Dam</t>
+  </si>
+  <si>
+    <t>Saikheda</t>
+  </si>
+  <si>
+    <t>73BEB122</t>
+  </si>
+  <si>
+    <t>25/09/2023 07:53 AM</t>
+  </si>
+  <si>
+    <t>Saiki Dam</t>
+  </si>
+  <si>
+    <t>Saiki</t>
+  </si>
+  <si>
+    <t>56082D64</t>
+  </si>
+  <si>
+    <t>27/10/2023 07:35 AM</t>
+  </si>
+  <si>
+    <t>Sapan</t>
+  </si>
+  <si>
+    <t>73B9E36A</t>
+  </si>
+  <si>
+    <t>02/12/2023 08:18 AM</t>
+  </si>
+  <si>
+    <t>Shivna Takali Medium Project</t>
+  </si>
+  <si>
+    <t>Shivna Dam</t>
+  </si>
+  <si>
+    <t>111C0050</t>
+  </si>
+  <si>
+    <t>29/11/2023 08:49 AM</t>
+  </si>
+  <si>
+    <t>Sirpur</t>
+  </si>
+  <si>
+    <t>Sirpur Dam</t>
+  </si>
+  <si>
+    <t>560753B4</t>
   </si>
   <si>
     <t>01:00:00</t>
   </si>
   <si>
-    <t>Babhali Barrage</t>
-  </si>
-  <si>
-    <t>73B50104</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:36 AM</t>
-  </si>
-  <si>
-    <t>29-11-2023</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>Bawanthadi</t>
-  </si>
-  <si>
-    <t>560740C2</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:43 AM</t>
-  </si>
-  <si>
-    <t>Bembla</t>
-  </si>
-  <si>
-    <t>73BF35CC</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:02 AM</t>
-  </si>
-  <si>
-    <t>Bhavali</t>
-  </si>
-  <si>
-    <t>Bhavali Dam</t>
-  </si>
-  <si>
-    <t>73B608D8</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:49 AM</t>
-  </si>
-  <si>
-    <t>15-10-2022</t>
-  </si>
-  <si>
-    <t>23:00:00</t>
-  </si>
-  <si>
-    <t>Bhojapur Dam</t>
-  </si>
-  <si>
-    <t>73B62E34</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:32 AM</t>
-  </si>
-  <si>
-    <t>Bhokarbari</t>
-  </si>
-  <si>
-    <t>73BA6CA2</t>
-  </si>
-  <si>
-    <t>12/08/2023 07:25 AM</t>
-  </si>
-  <si>
-    <t>Asolamendha</t>
-  </si>
-  <si>
-    <t>56011EA2</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:11 AM</t>
-  </si>
-  <si>
-    <t>Bodalkasa Medium Project</t>
-  </si>
-  <si>
-    <t>Bodalkasa</t>
-  </si>
-  <si>
-    <t>5607C6D6</t>
-  </si>
-  <si>
-    <t>23/11/2023 08:00 AM</t>
-  </si>
-  <si>
-    <t>Bor</t>
-  </si>
-  <si>
-    <t>5607ADE2</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:01 AM</t>
-  </si>
-  <si>
-    <t>Borgaon  Medium Project</t>
-  </si>
-  <si>
-    <t>Borgaon</t>
-  </si>
-  <si>
-    <t>56003466</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:20 AM</t>
-  </si>
-  <si>
-    <t>Bori</t>
-  </si>
-  <si>
-    <t>73BA8182</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:30 AM</t>
-  </si>
-  <si>
-    <t>Burai Medium Project</t>
-  </si>
-  <si>
-    <t>Burai</t>
-  </si>
-  <si>
-    <t>73BAD1FE</t>
-  </si>
-  <si>
-    <t>15/09/2023 06:39 AM</t>
-  </si>
-  <si>
-    <t>Chandai Medium Project</t>
-  </si>
-  <si>
-    <t>Chandai</t>
-  </si>
-  <si>
-    <t>56001C58</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:58 AM</t>
-  </si>
-  <si>
-    <t>Chandrabhaga Medium Dam</t>
-  </si>
-  <si>
-    <t>Chandrabhaga</t>
-  </si>
-  <si>
-    <t>56080B88</t>
-  </si>
-  <si>
-    <t>23/11/2023 08:28 AM</t>
-  </si>
-  <si>
-    <t>Chankapur</t>
-  </si>
-  <si>
-    <t>73BA7106</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:03 AM</t>
-  </si>
-  <si>
-    <t>Chargaon</t>
-  </si>
-  <si>
-    <t>5600128A</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:08 AM</t>
-  </si>
-  <si>
-    <t>Chorkhamara Medium Project</t>
-  </si>
-  <si>
-    <t>Chorakhmara</t>
-  </si>
-  <si>
-    <t>5607C804</t>
-  </si>
-  <si>
-    <t>Aner</t>
-  </si>
-  <si>
-    <t>73BA6270</t>
-  </si>
-  <si>
-    <t>16/11/2023 09:09 PM</t>
-  </si>
-  <si>
-    <t>Dara</t>
-  </si>
-  <si>
-    <t>73BAE464</t>
-  </si>
-  <si>
-    <t>Darna</t>
-  </si>
-  <si>
-    <t>Darna Dam</t>
-  </si>
-  <si>
-    <t>101C0001</t>
-  </si>
-  <si>
-    <t>Dham</t>
-  </si>
-  <si>
-    <t>56003AB4</t>
-  </si>
-  <si>
-    <t>28/11/2023 10:45 AM</t>
-  </si>
-  <si>
-    <t>Chitri</t>
-  </si>
-  <si>
-    <t>101A0001</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:51 AM</t>
-  </si>
-  <si>
-    <t>Dina</t>
-  </si>
-  <si>
-    <t>5606D75A</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:44 AM</t>
-  </si>
-  <si>
-    <t>06-11-2023</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>Dongargaon</t>
-  </si>
-  <si>
-    <t>560029C2</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:27 AM</t>
-  </si>
-  <si>
-    <t>Alandi Dam</t>
-  </si>
-  <si>
-    <t>73B6060A</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:46 AM</t>
-  </si>
-  <si>
-    <t>Gautami-Godavari Dam</t>
-  </si>
-  <si>
-    <t>Gautami Godavari Dam</t>
-  </si>
-  <si>
-    <t>73B57946</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:47 AM</t>
-  </si>
-  <si>
-    <t>Ghatprabha (phatakwadi)</t>
-  </si>
-  <si>
-    <t>Ghatprabha</t>
-  </si>
-  <si>
-    <t>73BC5724</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:10 AM</t>
-  </si>
-  <si>
-    <t>Ghodazari</t>
-  </si>
-  <si>
-    <t>56084882</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:08 AM</t>
-  </si>
-  <si>
-    <t>19-09-2023</t>
-  </si>
-  <si>
-    <t>20:00:00</t>
-  </si>
-  <si>
-    <t>Girna</t>
-  </si>
-  <si>
-    <t>73BA449C</t>
-  </si>
-  <si>
-    <t>28/11/2023 08:03 AM</t>
-  </si>
-  <si>
-    <t>Dyanganga Project</t>
-  </si>
-  <si>
-    <t>Dhyanganga</t>
-  </si>
-  <si>
-    <t>73BA2FA8</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:17 AM</t>
-  </si>
-  <si>
-    <t>Gosikhurd</t>
-  </si>
-  <si>
-    <t>Gosekhurd</t>
-  </si>
-  <si>
-    <t>5600E20E</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:13 AM</t>
-  </si>
-  <si>
-    <t>Chulband Medium Project</t>
-  </si>
-  <si>
-    <t>Chulbandh</t>
-  </si>
-  <si>
-    <t>5607E03A</t>
-  </si>
-  <si>
-    <t>Upper Tapi Hatnur</t>
-  </si>
-  <si>
-    <t>Hatnur</t>
-  </si>
-  <si>
-    <t>73BA3CDE</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:57 AM</t>
-  </si>
-  <si>
-    <t>Gangapur</t>
-  </si>
-  <si>
-    <t>Gangapur Dam</t>
-  </si>
-  <si>
-    <t>73B5A1FC</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:45 AM</t>
-  </si>
-  <si>
-    <t>Jam River  Medium  Dam</t>
-  </si>
-  <si>
-    <t>Jam Project</t>
-  </si>
-  <si>
-    <t>56000F2E</t>
-  </si>
-  <si>
-    <t>02/11/2023 08:35 AM</t>
-  </si>
-  <si>
-    <t>Goki Medium Project</t>
-  </si>
-  <si>
-    <t>Goki</t>
-  </si>
-  <si>
-    <t>73BEAC86</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:41 AM</t>
-  </si>
-  <si>
-    <t>Jamkhedi</t>
-  </si>
-  <si>
-    <t>73BAA76E</t>
-  </si>
-  <si>
-    <t>28/11/2023 05:10 PM</t>
-  </si>
-  <si>
-    <t>27-11-2023</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>Gunjawani</t>
-  </si>
-  <si>
-    <t>Gunjawani-WL</t>
-  </si>
-  <si>
-    <t>73BCC246</t>
-  </si>
-  <si>
-    <t>Paithan (Jayakwadi)</t>
-  </si>
-  <si>
-    <t>Jayakwadi Dam</t>
-  </si>
-  <si>
-    <t>111C0017</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:47 AM</t>
-  </si>
-  <si>
-    <t>Kadwa</t>
-  </si>
-  <si>
-    <t>Kadwa Dam</t>
-  </si>
-  <si>
-    <t>73B4984E</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:50 AM</t>
-  </si>
-  <si>
-    <t>Kalisarar</t>
-  </si>
-  <si>
-    <t>56077558</t>
-  </si>
-  <si>
-    <t>Kanholibara</t>
-  </si>
-  <si>
-    <t>560001FC</t>
-  </si>
-  <si>
-    <t>11/10/2023 02:56 PM</t>
-  </si>
-  <si>
-    <t>Kar River Project</t>
-  </si>
-  <si>
-    <t>Kar</t>
-  </si>
-  <si>
-    <t>56005F52</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:27 AM</t>
-  </si>
-  <si>
-    <t>JAMBRE</t>
-  </si>
-  <si>
-    <t>Jambhare</t>
-  </si>
-  <si>
-    <t>73BC9CE8</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:09 AM</t>
-  </si>
-  <si>
-    <t>Karwand</t>
-  </si>
-  <si>
-    <t>Karawand</t>
-  </si>
-  <si>
-    <t>73BAC288</t>
-  </si>
-  <si>
-    <t>26/11/2023 08:32 AM</t>
-  </si>
-  <si>
-    <t>Kashyapi Dam</t>
-  </si>
-  <si>
-    <t>73B56A30</t>
-  </si>
-  <si>
-    <t>Katepurna</t>
-  </si>
-  <si>
-    <t>73B9EDB8</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:19 AM</t>
-  </si>
-  <si>
-    <t>Karanjwan</t>
-  </si>
-  <si>
-    <t>Karanjvan Dam</t>
-  </si>
-  <si>
-    <t>73B4C832</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:34 AM</t>
-  </si>
-  <si>
-    <t>Khairbandha</t>
-  </si>
-  <si>
-    <t>5607D5A0</t>
-  </si>
-  <si>
-    <t>JANGAMHATTI</t>
-  </si>
-  <si>
-    <t>Jangamhatti-Dam</t>
-  </si>
-  <si>
-    <t>73BC4A80</t>
-  </si>
-  <si>
-    <t>29/11/2023 09:01 AM</t>
-  </si>
-  <si>
-    <t>Khindsi</t>
-  </si>
-  <si>
-    <t>5607EEE8</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:00 AM</t>
-  </si>
-  <si>
-    <t>Kolar</t>
-  </si>
-  <si>
-    <t>5607FD9E</t>
-  </si>
-  <si>
-    <t>23/11/2023 10:00 AM</t>
-  </si>
-  <si>
-    <t>Kolhi Medium Project</t>
-  </si>
-  <si>
-    <t>Kolhi</t>
-  </si>
-  <si>
-    <t>111C0059</t>
-  </si>
-  <si>
-    <t>29/06/2023 08:18 AM</t>
-  </si>
-  <si>
-    <t>Koradi Nalla Project</t>
-  </si>
-  <si>
-    <t>Koradi</t>
-  </si>
-  <si>
-    <t>73BEC7B2</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:13 AM</t>
-  </si>
-  <si>
-    <t>Labhansarad Medium Project</t>
-  </si>
-  <si>
-    <t>Labhansarad</t>
-  </si>
-  <si>
-    <t>56002710</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:42 AM</t>
-  </si>
-  <si>
-    <t>Lal NalIa</t>
-  </si>
-  <si>
-    <t>Lalnala</t>
-  </si>
-  <si>
-    <t>73BFD63E</t>
-  </si>
-  <si>
-    <t>Panzara Medium Project</t>
-  </si>
-  <si>
-    <t>Lower Panzara</t>
-  </si>
-  <si>
-    <t>73BAB418</t>
-  </si>
-  <si>
-    <t>28/11/2023 05:05 PM</t>
-  </si>
-  <si>
-    <t>Kesarnala Medium Dam</t>
-  </si>
-  <si>
-    <t>Kesarnalla</t>
-  </si>
-  <si>
-    <t>5608055A</t>
-  </si>
-  <si>
-    <t>Khekranala Dam</t>
-  </si>
-  <si>
-    <t>Khekranalla</t>
-  </si>
-  <si>
-    <t>56079878</t>
-  </si>
-  <si>
-    <t>23/11/2023 10:01 AM</t>
-  </si>
-  <si>
-    <t>Lower Wardha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Wardha </t>
-  </si>
-  <si>
-    <t>73BF502A</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:55 AM</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>Wadgaon</t>
-  </si>
-  <si>
-    <t>Lower Wenna (Wadgaon Tank)</t>
-  </si>
-  <si>
-    <t>73BFA0AE</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:29 AM</t>
-  </si>
-  <si>
-    <t>Madan</t>
-  </si>
-  <si>
-    <t>560042F6</t>
-  </si>
-  <si>
-    <t>01/11/2023 09:05 AM</t>
-  </si>
-  <si>
-    <t>Makardhokda Dam</t>
-  </si>
-  <si>
-    <t>Makardhokada</t>
-  </si>
-  <si>
-    <t>560823B6</t>
-  </si>
-  <si>
-    <t>27/10/2023 07:35 AM</t>
-  </si>
-  <si>
-    <t>Malangaon Medium Project</t>
-  </si>
-  <si>
-    <t>Malangaon</t>
-  </si>
-  <si>
-    <t>73BAA9BC</t>
-  </si>
-  <si>
-    <t>02/11/2023 09:48 AM</t>
-  </si>
-  <si>
-    <t>31-10-2023</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>Managarh</t>
-  </si>
-  <si>
-    <t>5607DB72</t>
-  </si>
-  <si>
-    <t>Lower Manar</t>
-  </si>
-  <si>
-    <t>Manar Dam</t>
-  </si>
-  <si>
-    <t>73B5FF52</t>
-  </si>
-  <si>
-    <t>29/11/2023 09:54 AM</t>
-  </si>
-  <si>
-    <t>Mandohal Dam</t>
-  </si>
-  <si>
-    <t>Mandohol Dam</t>
-  </si>
-  <si>
-    <t>111C0030</t>
-  </si>
-  <si>
-    <t>Manyad</t>
-  </si>
-  <si>
-    <t>73BA92F4</t>
-  </si>
-  <si>
-    <t>09/10/2023 08:37 AM</t>
-  </si>
-  <si>
-    <t>Mordham dam</t>
-  </si>
-  <si>
-    <t>Mordham</t>
-  </si>
-  <si>
-    <t>5608162C</t>
-  </si>
-  <si>
-    <t>23/11/2023 08:29 AM</t>
-  </si>
-  <si>
-    <t>Morna Dam</t>
-  </si>
-  <si>
-    <t>Morna</t>
-  </si>
-  <si>
-    <t>73B9F01C</t>
-  </si>
-  <si>
-    <t>Mudgal H L B</t>
-  </si>
-  <si>
-    <t>Mudgal Barrage</t>
-  </si>
-  <si>
-    <t>73B63D42</t>
-  </si>
-  <si>
-    <t>Mukane</t>
-  </si>
-  <si>
-    <t>Mukane Dam</t>
-  </si>
-  <si>
-    <t>73B4ADD4</t>
-  </si>
-  <si>
-    <t>Mula</t>
-  </si>
-  <si>
-    <t>Mula Dam</t>
-  </si>
-  <si>
-    <t>111C0028</t>
-  </si>
-  <si>
-    <t>Mun Dam</t>
-  </si>
-  <si>
-    <t>Mun</t>
-  </si>
-  <si>
-    <t>73BA0944</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:16 AM</t>
-  </si>
-  <si>
-    <t>Nagan Medium Project</t>
-  </si>
-  <si>
-    <t>Nagan</t>
-  </si>
-  <si>
-    <t>73BAF712</t>
-  </si>
-  <si>
-    <t>Nagya Sakya Dam</t>
-  </si>
-  <si>
-    <t>Nagyasakya</t>
-  </si>
-  <si>
-    <t>73BA7FD4</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:04 AM</t>
-  </si>
-  <si>
-    <t>Nalganga</t>
-  </si>
-  <si>
-    <t>73BA320C</t>
-  </si>
-  <si>
-    <t>Naleshwar</t>
-  </si>
-  <si>
-    <t>Nalleshwar</t>
-  </si>
-  <si>
-    <t>56085526</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:43 AM</t>
-  </si>
-  <si>
-    <t>Narangi Medium Project</t>
-  </si>
-  <si>
-    <t>Narangi Dam</t>
-  </si>
-  <si>
-    <t>111C0053</t>
-  </si>
-  <si>
-    <t>29/06/2023 08:13 AM</t>
-  </si>
-  <si>
-    <t>Natuwadi Medium Project</t>
-  </si>
-  <si>
-    <t>Natuwadi Dam</t>
-  </si>
-  <si>
-    <t>73B07E86</t>
-  </si>
-  <si>
-    <t>11/11/2023 09:50 AM</t>
-  </si>
-  <si>
-    <t>Ozarkhed</t>
-  </si>
-  <si>
-    <t>Ozarkhed Dam</t>
-  </si>
-  <si>
-    <t>73B5EC24</t>
-  </si>
-  <si>
-    <t>29/11/2023 09:27 AM</t>
-  </si>
-  <si>
-    <t>Nirguna Dam</t>
-  </si>
-  <si>
-    <t>Nirguna</t>
-  </si>
-  <si>
-    <t>73B9FECE</t>
-  </si>
-  <si>
-    <t>29/11/2023 06:39 AM</t>
-  </si>
-  <si>
-    <t>Bindusara Medium Project</t>
-  </si>
-  <si>
-    <t>Bindusara Dam</t>
-  </si>
-  <si>
-    <t>73B63390</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:50 AM</t>
-  </si>
-  <si>
-    <t>Pandrabodi</t>
-  </si>
-  <si>
-    <t>560818FE</t>
-  </si>
-  <si>
-    <t>23/09/2023 07:02 AM</t>
-  </si>
-  <si>
-    <t>Pentakli</t>
-  </si>
-  <si>
-    <t>73BE2440</t>
-  </si>
-  <si>
-    <t>Pothara</t>
-  </si>
-  <si>
-    <t>Pothra</t>
-  </si>
-  <si>
-    <t>56005180</t>
-  </si>
-  <si>
-    <t>13/11/2023 07:11 AM</t>
-  </si>
-  <si>
-    <t>Pujaritola P.U.Weir</t>
-  </si>
-  <si>
-    <t>Pujari Tola</t>
-  </si>
-  <si>
-    <t>56075D66</t>
-  </si>
-  <si>
-    <t>Punegaon</t>
-  </si>
-  <si>
-    <t>Punegaon Dam</t>
-  </si>
-  <si>
-    <t>73B589C2</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:43 AM</t>
-  </si>
-  <si>
-    <t>Panchadhara Dam</t>
-  </si>
-  <si>
-    <t>Panchdhara</t>
-  </si>
-  <si>
-    <t>56004C24</t>
-  </si>
-  <si>
-    <t>Rengepar medium project</t>
-  </si>
-  <si>
-    <t>Rengepar</t>
-  </si>
-  <si>
-    <t>56084650</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>Saikheda Dam</t>
-  </si>
-  <si>
-    <t>Saikheda</t>
-  </si>
-  <si>
-    <t>73BEB122</t>
-  </si>
-  <si>
-    <t>25/09/2023 07:53 AM</t>
-  </si>
-  <si>
-    <t>Saiki Dam</t>
-  </si>
-  <si>
-    <t>Saiki</t>
-  </si>
-  <si>
-    <t>56082D64</t>
-  </si>
-  <si>
-    <t>Sapan</t>
-  </si>
-  <si>
-    <t>73B9E36A</t>
-  </si>
-  <si>
-    <t>29/11/2023 07:52 AM</t>
-  </si>
-  <si>
-    <t>Shivna Takali Medium Project</t>
-  </si>
-  <si>
-    <t>Shivna Dam</t>
-  </si>
-  <si>
-    <t>111C0050</t>
-  </si>
-  <si>
-    <t>29/11/2023 08:49 AM</t>
-  </si>
-  <si>
-    <t>Sirpur</t>
-  </si>
-  <si>
-    <t>Sirpur Dam</t>
-  </si>
-  <si>
-    <t>560753B4</t>
-  </si>
-  <si>
     <t>Rangawali Medium Project</t>
   </si>
   <si>
@@ -1096,7 +1081,7 @@
     <t>73BA57EA</t>
   </si>
   <si>
-    <t>28/11/2023 10:24 AM</t>
+    <t>02/12/2023 09:04 AM</t>
   </si>
   <si>
     <t>Itiadoh</t>
@@ -1105,9 +1090,6 @@
     <t>5606C42C</t>
   </si>
   <si>
-    <t>29/11/2023 07:48 AM</t>
-  </si>
-  <si>
     <t>Totladoh</t>
   </si>
   <si>
@@ -1126,9 +1108,6 @@
     <t>73BE0C7E</t>
   </si>
   <si>
-    <t>29/11/2023 07:12 AM</t>
-  </si>
-  <si>
     <t>Umari Dam</t>
   </si>
   <si>
@@ -1150,6 +1129,9 @@
     <t>73BE8A6A</t>
   </si>
   <si>
+    <t>02/12/2023 06:53 AM</t>
+  </si>
+  <si>
     <t>Pus</t>
   </si>
   <si>
@@ -1159,15 +1141,15 @@
     <t>73BE41A6</t>
   </si>
   <si>
-    <t>29/11/2023 07:39 AM</t>
-  </si>
-  <si>
     <t>Upper Wardha</t>
   </si>
   <si>
     <t>73BFE3A4</t>
   </si>
   <si>
+    <t>02/12/2023 07:16 AM</t>
+  </si>
+  <si>
     <t>Sonwad Medium Project</t>
   </si>
   <si>
@@ -1177,7 +1159,7 @@
     <t>73BAF9C0</t>
   </si>
   <si>
-    <t>22/11/2023 11:42 AM</t>
+    <t>01/12/2023 08:38 AM</t>
   </si>
   <si>
     <t>10-10-2023</t>
@@ -1192,7 +1174,10 @@
     <t>73BFFE00</t>
   </si>
   <si>
-    <t>22/11/2023 07:58 AM</t>
+    <t>01/12/2023 09:14 AM</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
   </si>
   <si>
     <t>Tisgaon</t>
@@ -1204,6 +1189,9 @@
     <t>73B61BAE</t>
   </si>
   <si>
+    <t>02/12/2023 06:06 AM</t>
+  </si>
+  <si>
     <t>Waghad</t>
   </si>
   <si>
@@ -1225,7 +1213,7 @@
     <t>73BA0796</t>
   </si>
   <si>
-    <t>29/11/2023 08:10 AM</t>
+    <t>02/12/2023 06:30 AM</t>
   </si>
   <si>
     <t>Utawali Dam</t>
@@ -1243,6 +1231,9 @@
     <t>111C0003</t>
   </si>
   <si>
+    <t>02/12/2023 06:58 AM</t>
+  </si>
+  <si>
     <t>WADISHEWADI</t>
   </si>
   <si>
@@ -1264,7 +1255,7 @@
     <t>73BEBFF0</t>
   </si>
   <si>
-    <t>23/11/2023 08:38 AM</t>
+    <t>30/11/2023 11:07 AM</t>
   </si>
   <si>
     <t>Waki Dam</t>
@@ -1273,7 +1264,7 @@
     <t>73B4BEA2</t>
   </si>
   <si>
-    <t>29/11/2023 07:20 AM</t>
+    <t>02/12/2023 07:06 AM</t>
   </si>
   <si>
     <t>Paldhag Medium Project</t>
@@ -1300,7 +1291,7 @@
     <t>73BEA254</t>
   </si>
   <si>
-    <t>29/11/2023 06:47 AM</t>
+    <t>02/12/2023 06:51 AM</t>
   </si>
   <si>
     <t>Amravati</t>
@@ -1755,10 +1746,10 @@
         <v>648.6</v>
       </c>
       <c r="I2">
-        <v>648.393</v>
+        <v>648.45</v>
       </c>
       <c r="J2">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1778,336 +1769,336 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>331.9</v>
+        <v>332.7</v>
       </c>
       <c r="I3">
-        <v>331.934</v>
+        <v>331.972</v>
       </c>
       <c r="J3">
-        <v>-0.03</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>5040005</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="H4">
         <v>343.7</v>
       </c>
       <c r="I4">
-        <v>343.97</v>
+        <v>343.981</v>
       </c>
       <c r="J4">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>5073004</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>266.55</v>
       </c>
       <c r="I5">
-        <v>266.603</v>
+        <v>266.624</v>
       </c>
       <c r="J5">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>5196003</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
       <c r="H6">
-        <v>609.5</v>
+        <v>609.48</v>
       </c>
       <c r="I6">
         <v>-99.999</v>
       </c>
       <c r="J6">
-        <v>709.5</v>
+        <v>709.48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>5087012</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>684</v>
+        <v>683.95</v>
       </c>
       <c r="I7">
-        <v>684.172</v>
+        <v>684.181</v>
       </c>
       <c r="J7">
-        <v>-0.17</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>5049014</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>232.7</v>
       </c>
       <c r="I8">
-        <v>236.127</v>
+        <v>236.142</v>
       </c>
       <c r="J8">
-        <v>-3.43</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>5311001</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>212.12</v>
+        <v>212.1</v>
       </c>
       <c r="I9">
         <v>212.161</v>
       </c>
       <c r="J9">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>5185027</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>302.72</v>
       </c>
       <c r="I10">
-        <v>302.754</v>
+        <v>302.758</v>
       </c>
       <c r="J10">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>5206015</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>328.04</v>
+        <v>327.96</v>
       </c>
       <c r="I11">
-        <v>328.03</v>
+        <v>328.041</v>
       </c>
       <c r="J11">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>5550021</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>318.88</v>
       </c>
       <c r="I12">
-        <v>318.901</v>
+        <v>318.925</v>
       </c>
       <c r="J12">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>5048034</v>
       </c>
       <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>265.62</v>
+        <v>265.61</v>
       </c>
       <c r="I13">
-        <v>265.866</v>
+        <v>265.865</v>
       </c>
       <c r="J13">
         <v>-0.25</v>
@@ -2115,25 +2106,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>5226010</v>
       </c>
       <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>396.5</v>
@@ -2147,223 +2138,223 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>5186005</v>
       </c>
       <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>229.19</v>
+        <v>229.18</v>
       </c>
       <c r="I15">
         <v>229.235</v>
       </c>
       <c r="J15">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>5264005</v>
       </c>
       <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>381.04</v>
       </c>
       <c r="I16">
-        <v>385.744</v>
+        <v>385.749</v>
       </c>
       <c r="J16">
-        <v>-4.7</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>5283001</v>
       </c>
       <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>672.725</v>
       </c>
       <c r="I17">
-        <v>672.79</v>
+        <v>672.8</v>
       </c>
       <c r="J17">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>5185025</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>225.61</v>
+        <v>225.6</v>
       </c>
       <c r="I18">
-        <v>225.489</v>
+        <v>225.492</v>
       </c>
       <c r="J18">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>5188000</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <v>300.35</v>
       </c>
       <c r="I19">
-        <v>300.344</v>
+        <v>300.347</v>
       </c>
       <c r="J19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>5047007</v>
       </c>
       <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>216.38</v>
       </c>
       <c r="I20">
-        <v>216.395</v>
+        <v>216.469</v>
       </c>
       <c r="J20">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>5532006</v>
       </c>
       <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>309.2</v>
       </c>
       <c r="I21">
-        <v>309.294</v>
+        <v>309.29</v>
       </c>
       <c r="J21">
         <v>-0.09</v>
@@ -2371,31 +2362,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>5324004</v>
       </c>
       <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>569.37</v>
+        <v>569.38</v>
       </c>
       <c r="I22">
-        <v>569.387</v>
+        <v>569.397</v>
       </c>
       <c r="J22">
         <v>-0.02</v>
@@ -2418,19 +2409,19 @@
         <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>326.83</v>
       </c>
       <c r="I23">
-        <v>326.851</v>
+        <v>326.88</v>
       </c>
       <c r="J23">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2450,19 +2441,19 @@
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>718.82</v>
+        <v>718.81</v>
       </c>
       <c r="I24">
-        <v>718.674</v>
+        <v>718.669</v>
       </c>
       <c r="J24">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2488,13 +2479,13 @@
         <v>95</v>
       </c>
       <c r="H25">
-        <v>225.61</v>
+        <v>225.6</v>
       </c>
       <c r="I25">
         <v>225.997</v>
       </c>
       <c r="J25">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2514,19 +2505,19 @@
         <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>197.89</v>
       </c>
       <c r="I26">
-        <v>196.942</v>
+        <v>196.954</v>
       </c>
       <c r="J26">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,109 +2534,109 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H27">
-        <v>650.34</v>
+        <v>650.31</v>
       </c>
       <c r="I27">
-        <v>650.39</v>
+        <v>650.386</v>
       </c>
       <c r="J27">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28">
         <v>5512000</v>
       </c>
       <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-      <c r="E28" t="s">
-        <v>105</v>
-      </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H28">
-        <v>694.9</v>
+        <v>694.6</v>
       </c>
       <c r="I28">
-        <v>691.467</v>
+        <v>691.446</v>
       </c>
       <c r="J28">
-        <v>3.43</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>5049038</v>
       </c>
       <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
         <v>107</v>
       </c>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H29">
         <v>742.34</v>
       </c>
       <c r="I29">
-        <v>742.295</v>
+        <v>742.256</v>
       </c>
       <c r="J29">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>5283010</v>
       </c>
       <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
         <v>110</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>112</v>
-      </c>
-      <c r="F30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" t="s">
-        <v>114</v>
       </c>
       <c r="H30">
         <v>246.92</v>
@@ -2659,31 +2650,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>5047015</v>
       </c>
       <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
-      </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>392.57</v>
+        <v>392.551</v>
       </c>
       <c r="I31">
-        <v>392.995</v>
+        <v>392.978</v>
       </c>
       <c r="J31">
         <v>-0.43</v>
@@ -2691,31 +2682,31 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32">
         <v>5046051</v>
       </c>
       <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" t="s">
-        <v>121</v>
-      </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H32">
         <v>402.35</v>
       </c>
       <c r="I32">
-        <v>403.133</v>
+        <v>403.135</v>
       </c>
       <c r="J32">
         <v>-0.78</v>
@@ -2723,31 +2714,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>5110001</v>
       </c>
       <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
-      </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>243.97</v>
+        <v>243.99</v>
       </c>
       <c r="I33">
-        <v>243.982</v>
+        <v>243.999</v>
       </c>
       <c r="J33">
         <v>-0.01</v>
@@ -2755,159 +2746,159 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>5227008</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H34">
         <v>301.4</v>
       </c>
       <c r="I34">
-        <v>301.359</v>
+        <v>301.391</v>
       </c>
       <c r="J34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35">
         <v>5051004</v>
       </c>
       <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H35">
         <v>214</v>
       </c>
       <c r="I35">
-        <v>214.027</v>
+        <v>214.06</v>
       </c>
       <c r="J35">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B36">
         <v>5106001</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H36">
-        <v>610.65</v>
+        <v>610.58</v>
       </c>
       <c r="I36">
-        <v>610.79</v>
+        <v>610.771</v>
       </c>
       <c r="J36">
-        <v>-0.14</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <v>5039032</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>435.7</v>
       </c>
       <c r="I37">
-        <v>434.088</v>
+        <v>434.101</v>
       </c>
       <c r="J37">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38">
         <v>5343001</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H38">
-        <v>315.61</v>
+        <v>315.62</v>
       </c>
       <c r="I38">
-        <v>315.615</v>
+        <v>315.619</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2915,25 +2906,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B39">
         <v>5040003</v>
       </c>
       <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
         <v>145</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>146</v>
-      </c>
-      <c r="E39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" t="s">
-        <v>149</v>
       </c>
       <c r="H39">
         <v>546.36</v>
@@ -2947,95 +2938,95 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B40">
         <v>5514000</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H40">
         <v>726.6</v>
       </c>
       <c r="I40">
-        <v>726.653</v>
+        <v>726.635</v>
       </c>
       <c r="J40">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41">
         <v>5053009</v>
       </c>
       <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
         <v>154</v>
       </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>156</v>
-      </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>460.019</v>
+        <v>460.385</v>
       </c>
       <c r="I41">
-        <v>459.966</v>
+        <v>460.126</v>
       </c>
       <c r="J41">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42">
         <v>5049078</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H42">
         <v>587.5</v>
       </c>
       <c r="I42">
-        <v>591.643</v>
+        <v>591.644</v>
       </c>
       <c r="J42">
         <v>-4.14</v>
@@ -3043,127 +3034,127 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43">
         <v>5185005</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H43">
         <v>342.5</v>
       </c>
       <c r="I43">
-        <v>342.509</v>
+        <v>342.523</v>
       </c>
       <c r="J43">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B44">
         <v>5142003</v>
       </c>
       <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" t="s">
-        <v>165</v>
-      </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H44">
         <v>312.2</v>
       </c>
       <c r="I44">
-        <v>310.217</v>
+        <v>310.234</v>
       </c>
       <c r="J44">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B45">
         <v>5039027</v>
       </c>
       <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
         <v>167</v>
       </c>
-      <c r="D45" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" t="s">
-        <v>169</v>
-      </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H45">
         <v>431.2</v>
       </c>
       <c r="I45">
-        <v>431.257</v>
+        <v>431.278</v>
       </c>
       <c r="J45">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B46">
         <v>5042006</v>
       </c>
       <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
         <v>171</v>
       </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" t="s">
-        <v>173</v>
-      </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H46">
         <v>737</v>
       </c>
       <c r="I46">
-        <v>736.488</v>
+        <v>736.487</v>
       </c>
       <c r="J46">
         <v>0.51</v>
@@ -3171,63 +3162,63 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47">
         <v>5047002</v>
       </c>
       <c r="C47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
         <v>175</v>
       </c>
-      <c r="D47" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" t="s">
-        <v>177</v>
-      </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>219.05</v>
+        <v>219.32</v>
       </c>
       <c r="I47">
-        <v>219.331</v>
+        <v>219.342</v>
       </c>
       <c r="J47">
-        <v>-0.28</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B48">
         <v>5048018</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>661.65</v>
       </c>
       <c r="I48">
-        <v>662.424</v>
+        <v>662.422</v>
       </c>
       <c r="J48">
         <v>-0.77</v>
@@ -3235,95 +3226,95 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B49">
         <v>5104000</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H49">
         <v>345.35</v>
       </c>
       <c r="I49">
-        <v>345.6</v>
+        <v>345.593</v>
       </c>
       <c r="J49">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B50">
         <v>5207001</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H50">
-        <v>651.32</v>
+        <v>651.3</v>
       </c>
       <c r="I50">
         <v>651.44</v>
       </c>
       <c r="J50">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B51">
         <v>5545011</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H51">
         <v>285.23</v>
       </c>
       <c r="I51">
-        <v>285.216</v>
+        <v>285.223</v>
       </c>
       <c r="J51">
         <v>0.01</v>
@@ -3331,25 +3322,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B52">
         <v>5072007</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H52">
         <v>726.15</v>
@@ -3363,31 +3354,31 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B53">
         <v>5134000</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H53">
         <v>314.98</v>
       </c>
       <c r="I53">
-        <v>314.958</v>
+        <v>314.964</v>
       </c>
       <c r="J53">
         <v>0.02</v>
@@ -3395,51 +3386,51 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B54">
         <v>5265004</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>361.2</v>
       </c>
       <c r="I54">
-        <v>360.962</v>
+        <v>360.972</v>
       </c>
       <c r="J54">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B55">
         <v>5392000</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -3451,7 +3442,7 @@
         <v>555.04</v>
       </c>
       <c r="I55">
-        <v>549.469</v>
+        <v>549.47</v>
       </c>
       <c r="J55">
         <v>5.57</v>
@@ -3459,127 +3450,127 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B56">
         <v>5048039</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>544.2</v>
+        <v>544.25</v>
       </c>
       <c r="I56">
-        <v>544.246</v>
+        <v>544.262</v>
       </c>
       <c r="J56">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B57">
         <v>5186003</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H57">
-        <v>226.07</v>
+        <v>226.02</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>226.07</v>
+        <v>226.02</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B58">
         <v>5786001</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>233.46</v>
+        <v>233.4</v>
       </c>
       <c r="I58">
-        <v>233.401</v>
+        <v>233.388</v>
       </c>
       <c r="J58">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B59">
         <v>5302016</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H59">
         <v>545.46</v>
       </c>
       <c r="I59">
-        <v>380.017</v>
+        <v>380.025</v>
       </c>
       <c r="J59">
         <v>165.44</v>
@@ -3587,217 +3578,217 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B60">
         <v>5264008</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H60">
         <v>363.1</v>
       </c>
       <c r="I60">
-        <v>362.432</v>
+        <v>362.449</v>
       </c>
       <c r="J60">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B61">
         <v>5265005</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H61">
         <v>334.1</v>
       </c>
       <c r="I61">
-        <v>333.924</v>
+        <v>333.935</v>
       </c>
       <c r="J61">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B62">
         <v>5198000</v>
       </c>
       <c r="C62" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="H62">
-        <v>283.29</v>
+        <v>283.31</v>
       </c>
       <c r="I62">
-        <v>286.891</v>
+        <v>283.288</v>
       </c>
       <c r="J62">
-        <v>-3.6</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B63">
         <v>5135003</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H63">
-        <v>254.13</v>
+        <v>254.18</v>
       </c>
       <c r="I63">
-        <v>254.167</v>
+        <v>254.237</v>
       </c>
       <c r="J63">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B64">
         <v>5340001</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>329.9</v>
       </c>
       <c r="I64">
-        <v>329.78</v>
+        <v>329.8</v>
       </c>
       <c r="J64">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B65">
         <v>5185000</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H65">
-        <v>298.1</v>
+        <v>296.9</v>
       </c>
       <c r="I65">
-        <v>297.026</v>
+        <v>297.018</v>
       </c>
       <c r="J65">
-        <v>1.07</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B66">
         <v>5060000</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F66" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H66">
         <v>561.18</v>
@@ -3811,83 +3802,83 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B67">
         <v>5187004</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H67">
         <v>332.62</v>
       </c>
       <c r="I67">
-        <v>332.821</v>
+        <v>332.826</v>
       </c>
       <c r="J67">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B68">
         <v>5360000</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H68">
         <v>391.65</v>
       </c>
       <c r="I68">
-        <v>391.995</v>
+        <v>392.006</v>
       </c>
       <c r="J68">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B69">
         <v>5056010</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -3896,190 +3887,190 @@
         <v>15</v>
       </c>
       <c r="H69">
-        <v>709.5</v>
+        <v>709.6</v>
       </c>
       <c r="I69">
         <v>1.9</v>
       </c>
       <c r="J69">
-        <v>707.6</v>
+        <v>707.7</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B70">
         <v>5047013</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H70">
         <v>365.8</v>
       </c>
       <c r="I70">
-        <v>225.534</v>
+        <v>225.461</v>
       </c>
       <c r="J70">
-        <v>140.27</v>
+        <v>140.34</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B71">
         <v>5264006</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H71">
         <v>373.51</v>
       </c>
       <c r="I71">
-        <v>373.942</v>
+        <v>373.955</v>
       </c>
       <c r="J71">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B72">
         <v>5113000</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>365.45</v>
+        <v>365.4</v>
       </c>
       <c r="I72">
-        <v>365.575</v>
+        <v>365.579</v>
       </c>
       <c r="J72">
-        <v>-0.13</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B73">
         <v>5050028</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H73">
         <v>381.1</v>
       </c>
       <c r="I73">
-        <v>381.231</v>
+        <v>381.218</v>
       </c>
       <c r="J73">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B74">
         <v>5180001</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H74">
-        <v>592.88</v>
+        <v>592.84</v>
       </c>
       <c r="I74">
-        <v>592.827</v>
+        <v>592.821</v>
       </c>
       <c r="J74">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B75">
         <v>5047000</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -4088,170 +4079,170 @@
         <v>15</v>
       </c>
       <c r="H75">
-        <v>549.843</v>
+        <v>549.432</v>
       </c>
       <c r="I75">
-        <v>550.461</v>
+        <v>549.466</v>
       </c>
       <c r="J75">
-        <v>-0.62</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B76">
         <v>5302001</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H76">
         <v>369.5</v>
       </c>
       <c r="I76">
-        <v>378.638</v>
+        <v>378.647</v>
       </c>
       <c r="J76">
-        <v>-9.14</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B77">
         <v>5185017</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H77">
         <v>204.8</v>
       </c>
       <c r="I77">
-        <v>204.868</v>
+        <v>204.878</v>
       </c>
       <c r="J77">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B78">
         <v>5531007</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H78">
-        <v>476.9</v>
+        <v>477.9</v>
       </c>
       <c r="I78">
-        <v>76.259</v>
+        <v>76.271</v>
       </c>
       <c r="J78">
-        <v>400.64</v>
+        <v>401.63</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B79">
         <v>5047024</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D79" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H79">
         <v>289.56</v>
       </c>
       <c r="I79">
-        <v>289.033</v>
+        <v>289.043</v>
       </c>
       <c r="J79">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B80">
         <v>5185024</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H80">
         <v>209.08</v>
       </c>
       <c r="I80">
-        <v>209.07</v>
+        <v>209.074</v>
       </c>
       <c r="J80">
         <v>0.01</v>
@@ -4259,19 +4250,19 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B81">
         <v>5542078</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -4283,33 +4274,33 @@
         <v>529.85</v>
       </c>
       <c r="I81">
-        <v>529.153</v>
+        <v>529.135</v>
       </c>
       <c r="J81">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B82">
         <v>5295000</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>92.46</v>
@@ -4323,159 +4314,159 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B83">
         <v>5100000</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>646.87</v>
+        <v>646.81</v>
       </c>
       <c r="I83">
-        <v>646.73</v>
+        <v>646.729</v>
       </c>
       <c r="J83">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B84">
         <v>5343002</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H84">
         <v>390.55</v>
       </c>
       <c r="I84">
-        <v>390.495</v>
+        <v>390.501</v>
       </c>
       <c r="J84">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B85">
         <v>5070014</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E85" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H85">
-        <v>561.98</v>
+        <v>562.1</v>
       </c>
       <c r="I85">
-        <v>561.975</v>
+        <v>561.985</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B86">
         <v>5186010</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H86">
         <v>56.7</v>
       </c>
       <c r="I86">
-        <v>258.274</v>
+        <v>258.279</v>
       </c>
       <c r="J86">
-        <v>-201.57</v>
+        <v>-201.58</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B87">
         <v>5041015</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>308</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H87">
         <v>554.2</v>
       </c>
       <c r="I87">
-        <v>554.33</v>
+        <v>554.331</v>
       </c>
       <c r="J87">
         <v>-0.13</v>
@@ -4483,159 +4474,159 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B88">
         <v>5041006</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D88" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E88" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H88">
         <v>229.02</v>
       </c>
       <c r="I88">
-        <v>228.526</v>
+        <v>228.514</v>
       </c>
       <c r="J88">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B89">
         <v>5185004</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H89">
         <v>318.27</v>
       </c>
       <c r="I89">
-        <v>318.285</v>
+        <v>318.295</v>
       </c>
       <c r="J89">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B90">
         <v>5095044</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H90">
-        <v>689.01</v>
+        <v>688.95</v>
       </c>
       <c r="I90">
-        <v>689.091</v>
+        <v>689.083</v>
       </c>
       <c r="J90">
-        <v>-0.08</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B91">
         <v>5292001</v>
       </c>
       <c r="C91" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D91" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="H91">
-        <v>303.7</v>
+        <v>303.75</v>
       </c>
       <c r="I91">
-        <v>304.405</v>
+        <v>304.41</v>
       </c>
       <c r="J91">
-        <v>-0.7</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B92">
         <v>5187007</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>334</v>
+        <v>15</v>
       </c>
       <c r="H92">
         <v>309.56</v>
       </c>
       <c r="I92">
-        <v>308.778</v>
+        <v>308.781</v>
       </c>
       <c r="J92">
         <v>0.78</v>
@@ -4643,63 +4634,63 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B93">
         <v>5363003</v>
       </c>
       <c r="C93" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D93" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E93" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H93">
         <v>272.49</v>
       </c>
       <c r="I93">
-        <v>272.091</v>
+        <v>272.115</v>
       </c>
       <c r="J93">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B94">
         <v>5570003</v>
       </c>
       <c r="C94" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D94" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E94" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H94">
         <v>297.45</v>
       </c>
       <c r="I94">
-        <v>295.855</v>
+        <v>295.859</v>
       </c>
       <c r="J94">
         <v>1.59</v>
@@ -4707,51 +4698,51 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B95">
         <v>5181002</v>
       </c>
       <c r="C95" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D95" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E95" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H95">
-        <v>512.45</v>
+        <v>512.4</v>
       </c>
       <c r="I95">
-        <v>512.435</v>
+        <v>512.426</v>
       </c>
       <c r="J95">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B96">
         <v>5055002</v>
       </c>
       <c r="C96" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D96" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E96" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -4763,65 +4754,65 @@
         <v>556.3</v>
       </c>
       <c r="I96">
-        <v>556.314</v>
+        <v>556.284</v>
       </c>
       <c r="J96">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B97">
         <v>5185003</v>
       </c>
       <c r="C97" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D97" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="H97">
-        <v>349.06</v>
+        <v>349.03</v>
       </c>
       <c r="I97">
         <v>349.019</v>
       </c>
       <c r="J97">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B98">
         <v>5425000</v>
       </c>
       <c r="C98" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E98" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F98" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G98" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H98">
         <v>225.55</v>
@@ -4835,127 +4826,127 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B99">
         <v>5065009</v>
       </c>
       <c r="C99" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E99" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H99">
-        <v>372.07</v>
+        <v>372.1</v>
       </c>
       <c r="I99">
-        <v>372.027</v>
+        <v>372.035</v>
       </c>
       <c r="J99">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B100">
         <v>5184013</v>
       </c>
       <c r="C100" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E100" t="s">
-        <v>364</v>
+        <v>71</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H100">
-        <v>254.99</v>
+        <v>254.96</v>
       </c>
       <c r="I100">
-        <v>254.959</v>
+        <v>254.971</v>
       </c>
       <c r="J100">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B101">
         <v>5140005</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G101" t="s">
         <v>95</v>
       </c>
       <c r="H101">
-        <v>487.01</v>
+        <v>487.03</v>
       </c>
       <c r="I101">
         <v>492.636</v>
       </c>
       <c r="J101">
-        <v>-5.63</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B102">
         <v>5344000</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D102" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E102" t="s">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H102">
-        <v>305.91</v>
+        <v>305.94</v>
       </c>
       <c r="I102">
-        <v>305.905</v>
+        <v>305.931</v>
       </c>
       <c r="J102">
         <v>0.01</v>
@@ -4963,63 +4954,63 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B103">
         <v>5534000</v>
       </c>
       <c r="C103" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D103" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E103" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H103">
         <v>375.5</v>
       </c>
       <c r="I103">
-        <v>375.35</v>
+        <v>375.36</v>
       </c>
       <c r="J103">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B104">
         <v>5052015</v>
       </c>
       <c r="C104" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D104" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>372</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H104">
-        <v>438.74</v>
+        <v>438.75</v>
       </c>
       <c r="I104">
-        <v>438.767</v>
+        <v>438.777</v>
       </c>
       <c r="J104">
         <v>-0.03</v>
@@ -5027,249 +5018,249 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B105">
         <v>5345000</v>
       </c>
       <c r="C105" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E105" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H105">
-        <v>398.46</v>
+        <v>398.6</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>398.46</v>
+        <v>398.6</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B106">
         <v>5099003</v>
       </c>
       <c r="C106" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D106" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H106">
-        <v>341.62</v>
+        <v>341.63</v>
       </c>
       <c r="I106">
-        <v>341.603</v>
+        <v>341.629</v>
       </c>
       <c r="J106">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B107">
         <v>5047008</v>
       </c>
       <c r="C107" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D107" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E107" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F107" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G107" t="s">
         <v>95</v>
       </c>
       <c r="H107">
-        <v>208.42</v>
+        <v>208.36</v>
       </c>
       <c r="I107">
         <v>214.421</v>
       </c>
       <c r="J107">
-        <v>-6</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B108">
         <v>5185011</v>
       </c>
       <c r="C108" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E108" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="H108">
-        <v>337.16</v>
+        <v>337.12</v>
       </c>
       <c r="I108">
         <v>337.095</v>
       </c>
       <c r="J108">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B109">
         <v>5272000</v>
       </c>
       <c r="C109" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D109" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>392</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H109">
-        <v>634.28</v>
+        <v>634.25</v>
       </c>
       <c r="I109">
-        <v>634.452</v>
+        <v>634.45</v>
       </c>
       <c r="J109">
-        <v>-0.17</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B110">
         <v>5256009</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D110" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E110" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G110" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H110">
-        <v>668.2</v>
+        <v>668.17</v>
       </c>
       <c r="I110">
         <v>664.492</v>
       </c>
       <c r="J110">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B111">
         <v>5105000</v>
       </c>
       <c r="C111" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D111" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E111" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H111">
-        <v>343.4</v>
+        <v>343.35</v>
       </c>
       <c r="I111">
-        <v>348.761</v>
+        <v>348.762</v>
       </c>
       <c r="J111">
-        <v>-5.36</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B112">
         <v>5302000</v>
       </c>
       <c r="C112" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H112">
         <v>366.75</v>
@@ -5283,63 +5274,63 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B113">
         <v>5174000</v>
       </c>
       <c r="C113" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>406</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H113">
-        <v>611.33</v>
+        <v>611.05</v>
       </c>
       <c r="I113">
-        <v>611.614</v>
+        <v>611.339</v>
       </c>
       <c r="J113">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B114">
         <v>5041022</v>
       </c>
       <c r="C114" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E114" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H114">
         <v>270</v>
       </c>
       <c r="I114">
-        <v>269.508</v>
+        <v>269.512</v>
       </c>
       <c r="J114">
         <v>0.49</v>
@@ -5347,162 +5338,162 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B115">
         <v>5333000</v>
       </c>
       <c r="C115" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E115" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H115">
-        <v>318.44</v>
+        <v>318.4</v>
       </c>
       <c r="I115">
-        <v>318.49</v>
+        <v>318.513</v>
       </c>
       <c r="J115">
-        <v>-0.05</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B116">
         <v>5260013</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E116" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H116">
         <v>619.96</v>
       </c>
       <c r="I116">
-        <v>621.625</v>
+        <v>621.638</v>
       </c>
       <c r="J116">
-        <v>-1.66</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B117">
         <v>5048023</v>
       </c>
       <c r="C117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" t="s">
+        <v>420</v>
+      </c>
+      <c r="E117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" t="s">
+        <v>421</v>
+      </c>
+      <c r="G117" t="s">
         <v>422</v>
       </c>
-      <c r="D117" t="s">
-        <v>423</v>
-      </c>
-      <c r="E117" t="s">
-        <v>285</v>
-      </c>
-      <c r="F117" t="s">
-        <v>424</v>
-      </c>
-      <c r="G117" t="s">
-        <v>425</v>
-      </c>
       <c r="H117">
-        <v>400.1</v>
+        <v>400.14</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>400.1</v>
+        <v>400.14</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B118">
         <v>5185020</v>
       </c>
       <c r="C118" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D118" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E118" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>334</v>
+        <v>22</v>
       </c>
       <c r="H118">
-        <v>273.56</v>
+        <v>273.41</v>
       </c>
       <c r="I118">
-        <v>273.518</v>
+        <v>273.459</v>
       </c>
       <c r="J118">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B119">
         <v>5487000</v>
       </c>
       <c r="C119" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D119" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E119" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H119">
         <v>219</v>
       </c>
       <c r="I119">
-        <v>218.497</v>
+        <v>218.531</v>
       </c>
       <c r="J119">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
